--- a/534-eval.xlsx
+++ b/534-eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josh/Documents/photogrammetry-characterization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113C4A28-318C-6346-9779-204A00DE6B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2059F186-13F7-9347-A4BC-1961BC7DB0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/534-eval.xlsx
+++ b/534-eval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josh/Documents/photogrammetry-characterization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD9F329-17FE-3448-8E5C-C0BFF0EA1EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AB9925-884B-034D-B95D-FC4499017DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Scaniverse-i12" sheetId="3" r:id="rId3"/>
     <sheet name="Scaniverse-i14" sheetId="4" r:id="rId4"/>
     <sheet name="ObjCap-i14" sheetId="5" r:id="rId5"/>
+    <sheet name="Statistical tests" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="150">
   <si>
     <t>Scan</t>
   </si>
@@ -436,6 +437,57 @@
   </si>
   <si>
     <t>objects/scaniverse-ise/shadowless/Scaniverse-ise-SL-05.obj</t>
+  </si>
+  <si>
+    <t>Total Mean Error</t>
+  </si>
+  <si>
+    <t>Hausdorff Mean Error</t>
+  </si>
+  <si>
+    <t>Degrees of Freedom</t>
+  </si>
+  <si>
+    <t>Null Hypothesis: Ho:μ1=μ2</t>
+  </si>
+  <si>
+    <t>Alternative hypothesis: Ho:μ1≠μ2</t>
+  </si>
+  <si>
+    <t>Statistical Tests - Mean Error</t>
+  </si>
+  <si>
+    <t>Test statistic</t>
+  </si>
+  <si>
+    <t>Pooled Variance</t>
+  </si>
+  <si>
+    <t>Pooled Stddev</t>
+  </si>
+  <si>
+    <t>Difference of Mean</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>crit val</t>
+  </si>
+  <si>
+    <t>Null Hypothesis</t>
+  </si>
+  <si>
+    <t>Alternative Hypothesis</t>
+  </si>
+  <si>
+    <t>ise vs i12</t>
+  </si>
+  <si>
+    <t>ise vs i14</t>
+  </si>
+  <si>
+    <t>ise vs objcap</t>
   </si>
 </sst>
 </file>
@@ -463,12 +515,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -490,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -508,6 +566,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,10 +1136,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1350,16 +1410,19 @@
     <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>39</v>
       </c>
@@ -1371,8 +1434,21 @@
         <f>STDEV(E2:E6)</f>
         <v>7.7703526925110085</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19">
+        <f>5+5-2</f>
+        <v>8</v>
+      </c>
+      <c r="J19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>40</v>
       </c>
@@ -1384,9 +1460,22 @@
         <f>STDEV(F2:F6)</f>
         <v>2.4726218368279342</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20">
+        <v>2.306</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>41</v>
       </c>
@@ -1398,8 +1487,15 @@
         <f>STDEV(E8:E12)</f>
         <v>5.6168213112043688</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="2">
+        <f>D19-D22</f>
+        <v>1.1596160219966229</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>42</v>
       </c>
@@ -1410,6 +1506,65 @@
       <c r="E23" s="3">
         <f>STDEV(F8:F12)</f>
         <v>2.7986465701550567</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23">
+        <f>(((H19/2-1)*E20^2)+((H19/2-1)*E23^2))/H19</f>
+        <v>5.2298555147246288</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24">
+        <f>SQRT(H23)</f>
+        <v>2.2868877354878241</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="1">
+        <f>AVERAGE(D19,D22)</f>
+        <v>26.510170806128386</v>
+      </c>
+      <c r="E25" s="1">
+        <f>AVERAGE(E19,E22)</f>
+        <v>6.6935870018576882</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25">
+        <f>H22/(H24*SQRT(1/4+1/4))</f>
+        <v>0.71710765684041722</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="1">
+        <f>AVERAGE(D20,D23)</f>
+        <v>6.8669951652549193</v>
+      </c>
+      <c r="E26" s="1">
+        <f>AVERAGE(E20,E23)</f>
+        <v>2.6356342034914952</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G27" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G28" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1422,9 +1577,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:K28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1694,16 +1851,19 @@
     <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>39</v>
       </c>
@@ -1715,8 +1875,21 @@
         <f>STDEV(E2:E6)</f>
         <v>1.4178009390062754</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19">
+        <f>5+5-2</f>
+        <v>8</v>
+      </c>
+      <c r="J19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>40</v>
       </c>
@@ -1728,9 +1901,22 @@
         <f>STDEV(F2:F6)</f>
         <v>1.9110207200056835</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20">
+        <v>2.306</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>41</v>
       </c>
@@ -1742,8 +1928,15 @@
         <f>STDEV(E8:E12)</f>
         <v>3.5284308118361993</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="2">
+        <f>D19-D22</f>
+        <v>-3.8386420998490394</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>42</v>
       </c>
@@ -1754,6 +1947,65 @@
       <c r="E23" s="3">
         <f>STDEV(F8:F12)</f>
         <v>1.9330633450599466</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23">
+        <f>(((H19/2-1)*E20^2)+((H19/2-1)*E23^2))/H19</f>
+        <v>2.7707752831145216</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24">
+        <f>SQRT(H23)</f>
+        <v>1.6645645926531423</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="1">
+        <f>AVERAGE(D19,D22)</f>
+        <v>22.476254518730979</v>
+      </c>
+      <c r="E25" s="1">
+        <f>AVERAGE(E19,E22)</f>
+        <v>2.4731158754212372</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25">
+        <f>H22/(H24*SQRT(1/4+1/4))</f>
+        <v>-3.2613091391365776</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="1">
+        <f>AVERAGE(D20,D23)</f>
+        <v>6.0128803664073835</v>
+      </c>
+      <c r="E26" s="1">
+        <f>AVERAGE(E20,E23)</f>
+        <v>1.9220420325328149</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G27" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G28" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1766,9 +2018,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2038,16 +2292,19 @@
     <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>39</v>
       </c>
@@ -2059,8 +2316,21 @@
         <f>STDEV(E2:E6)</f>
         <v>4.4660398597804054</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19">
+        <f>5+5-2</f>
+        <v>8</v>
+      </c>
+      <c r="J19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>40</v>
       </c>
@@ -2072,9 +2342,22 @@
         <f>STDEV(F2:F6)</f>
         <v>0.92886528529346046</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20">
+        <v>2.306</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>41</v>
       </c>
@@ -2086,8 +2369,15 @@
         <f>STDEV(E8:E12)</f>
         <v>1.8265063358349838</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="2">
+        <f>D19-D22</f>
+        <v>0.87650291215735976</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>42</v>
       </c>
@@ -2098,6 +2388,65 @@
       <c r="E23" s="3">
         <f>STDEV(F8:F12)</f>
         <v>1.392073586062591</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23">
+        <f>(((H19/2-1)*E20^2)+((H19/2-1)*E23^2))/H19</f>
+        <v>1.0502473452136738</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24">
+        <f>SQRT(H23)</f>
+        <v>1.0248157615950653</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="1">
+        <f>AVERAGE(D19,D22)</f>
+        <v>22.525945628615901</v>
+      </c>
+      <c r="E25" s="1">
+        <f>AVERAGE(E19,E22)</f>
+        <v>3.1462730978076947</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25">
+        <f>H22/(H24*SQRT(1/4+1/4))</f>
+        <v>1.2095464885348233</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="1">
+        <f>AVERAGE(D20,D23)</f>
+        <v>5.5881263789011353</v>
+      </c>
+      <c r="E26" s="1">
+        <f>AVERAGE(E20,E23)</f>
+        <v>1.1604694356780256</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G27" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G28" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2110,9 +2459,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2382,16 +2733,19 @@
     <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>39</v>
       </c>
@@ -2403,8 +2757,21 @@
         <f>STDEV(E2:E6)</f>
         <v>1.9073953221596702</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19">
+        <f>5+5-2</f>
+        <v>8</v>
+      </c>
+      <c r="J19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>40</v>
       </c>
@@ -2416,9 +2783,22 @@
         <f>STDEV(F2:F6)</f>
         <v>0.62321299213318793</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20">
+        <v>2.306</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2810,15 @@
         <f>STDEV(E8:E12)</f>
         <v>2.191531575706239</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="2">
+        <f>D19-D22</f>
+        <v>0.12059067810063695</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>42</v>
       </c>
@@ -2442,6 +2829,346 @@
       <c r="E23" s="3">
         <f>STDEV(F8:F12)</f>
         <v>0.39227489613832633</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23">
+        <f>(((H19/2-1)*E20^2)+((H19/2-1)*E23^2))/H19</f>
+        <v>0.2033527603889759</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24">
+        <f>SQRT(H23)</f>
+        <v>0.45094651610692804</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="1">
+        <f>AVERAGE(D19,D22)</f>
+        <v>18.756474215872082</v>
+      </c>
+      <c r="E25" s="1">
+        <f>AVERAGE(E19,E22)</f>
+        <v>2.0494634489329546</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25">
+        <f>H22/(H24*SQRT(1/4+1/4))</f>
+        <v>0.3781844772590513</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="1">
+        <f>AVERAGE(D20,D23)</f>
+        <v>5.0430698193424854</v>
+      </c>
+      <c r="E26" s="1">
+        <f>AVERAGE(E20,E23)</f>
+        <v>0.50774394413575719</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G27" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G28" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7A2585-1AF8-A747-96DC-C90E6BCC0739}">
+  <dimension ref="B2:F36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3">
+        <f>10+10-2</f>
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4">
+        <v>2.306</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="2">
+        <f>'Scaniverse-ise'!D$20-'ObjCap-i14'!D$20</f>
+        <v>2.2780488073561092</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7">
+        <f>(((C3/2-1)*'Scaniverse-ise'!E$20^2)+((C3/2-1)*'ObjCap-i14'!E$20^2))/C3</f>
+        <v>2.8898903028986438</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8">
+        <f>SQRT(C7)</f>
+        <v>1.6999677358404905</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9">
+        <f>C6/(C8*SQRT(1/9+1/9))</f>
+        <v>2.8426841149882449</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15">
+        <f>10+10-2</f>
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16">
+        <v>2.306</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="2">
+        <f>'Scaniverse-ise'!D$20-'Scaniverse-i14'!D$20</f>
+        <v>0.73245691580460637</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19">
+        <f>(((C15/2-1)*'Scaniverse-ise'!E$20^2)+((C15/2-1)*'Scaniverse-i14'!E$20^2))/C15</f>
+        <v>3.1007330960807327</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20">
+        <f>SQRT(C19)</f>
+        <v>1.7608898591566517</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21">
+        <f>C18/(C20*SQRT(1/9+1/9))</f>
+        <v>0.88238100083182847</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28">
+        <v>2.306</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="2">
+        <f>'Scaniverse-ise'!D$20-'Scaniverse-i12'!D$20</f>
+        <v>0.84330398834604825</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31">
+        <f>(((C27/2-1)*'Scaniverse-ise'!E$20^2)+((C27/2-1)*'Scaniverse-i12'!E$20^2))/C27</f>
+        <v>4.3403817512219502</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32">
+        <f>SQRT(C31)</f>
+        <v>2.0833582868104923</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33">
+        <f>C30/(C32*SQRT(1/9+1/9))</f>
+        <v>0.85867031014727258</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/534-eval.xlsx
+++ b/534-eval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josh/Documents/photogrammetry-characterization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AB9925-884B-034D-B95D-FC4499017DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0C192E-AA47-814C-91FB-063E0ECD49DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,13 @@
     <sheet name="ObjCap-i14" sheetId="5" r:id="rId5"/>
     <sheet name="Statistical tests" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">'Statistical tests'!$J$6:$J$9</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'Statistical tests'!$K$5</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'Statistical tests'!$K$6:$K$9</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'Statistical tests'!$L$5</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">'Statistical tests'!$L$6:$L$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="156">
   <si>
     <t>Scan</t>
   </si>
@@ -488,6 +495,24 @@
   </si>
   <si>
     <t>ise vs objcap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean Error </t>
+  </si>
+  <si>
+    <t>ObjCap-i14</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Scaniverse-i14</t>
+  </si>
+  <si>
+    <t>Scaniverse-i12</t>
+  </si>
+  <si>
+    <t>Scaniverse-ise</t>
   </si>
 </sst>
 </file>
@@ -548,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -567,7 +592,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,6 +607,1047 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mean Absolute Error in Reconstructed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Model</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Statistical tests'!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Room</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Statistical tests'!$J$6:$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Scaniverse-ise</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scaniverse-i12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scaniverse-i14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ObjCap-i14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Statistical tests'!$K$6:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.1964403868350004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3531363984889522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4639834710303941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9183915794788913</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48D2-6641-8C6C-B7958992F70E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Statistical tests'!$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shadowless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Statistical tests'!$J$6:$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Scaniverse-ise</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scaniverse-i12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scaniverse-i14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ObjCap-i14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Statistical tests'!$L$6:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.5375499436748381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6726243343258158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7122692867718774</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1677480592060796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-48D2-6641-8C6C-B7958992F70E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="501930336"/>
+        <c:axId val="1212113199"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="501930336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1212113199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1212113199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501930336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{865A2C24-9DA0-5B90-1C6B-BAA8C2FF7222}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1139,7 +2204,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1424,7 +2489,7 @@
     </row>
     <row r="19" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19" s="3">
         <f>AVERAGE(E2:E6)</f>
@@ -1450,7 +2515,7 @@
     </row>
     <row r="20" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(F2:F6)</f>
@@ -1477,7 +2542,7 @@
     </row>
     <row r="22" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="3">
         <f>AVERAGE(E8:E12)</f>
@@ -1497,7 +2562,7 @@
     </row>
     <row r="23" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" s="3">
         <f>AVERAGE(F8:F12)</f>
@@ -1563,7 +2628,7 @@
       </c>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1580,7 +2645,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:K28"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1865,7 +2930,7 @@
     </row>
     <row r="19" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19" s="3">
         <f>AVERAGE(E2:E6)</f>
@@ -1891,7 +2956,7 @@
     </row>
     <row r="20" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(F2:F6)</f>
@@ -1918,7 +2983,7 @@
     </row>
     <row r="22" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="3">
         <f>AVERAGE(E8:E12)</f>
@@ -1938,7 +3003,7 @@
     </row>
     <row r="23" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" s="3">
         <f>AVERAGE(F8:F12)</f>
@@ -1999,7 +3064,7 @@
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="2" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2021,7 +3086,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2306,7 +3371,7 @@
     </row>
     <row r="19" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19" s="3">
         <f>AVERAGE(E2:E6)</f>
@@ -2332,7 +3397,7 @@
     </row>
     <row r="20" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(F2:F6)</f>
@@ -2359,7 +3424,7 @@
     </row>
     <row r="22" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="3">
         <f>AVERAGE(E8:E12)</f>
@@ -2379,7 +3444,7 @@
     </row>
     <row r="23" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" s="3">
         <f>AVERAGE(F8:F12)</f>
@@ -2461,8 +3526,8 @@
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2747,7 +3812,7 @@
     </row>
     <row r="19" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19" s="3">
         <f>AVERAGE(E2:E6)</f>
@@ -2773,7 +3838,7 @@
     </row>
     <row r="20" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(F2:F6)</f>
@@ -2800,7 +3865,7 @@
     </row>
     <row r="22" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="3">
         <f>AVERAGE(E8:E12)</f>
@@ -2820,7 +3885,7 @@
     </row>
     <row r="23" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" s="3">
         <f>AVERAGE(F8:F12)</f>
@@ -2897,18 +3962,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7A2585-1AF8-A747-96DC-C90E6BCC0739}">
-  <dimension ref="B2:F36"/>
+  <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>138</v>
       </c>
@@ -2916,7 +3982,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>135</v>
       </c>
@@ -2931,7 +3997,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>136</v>
       </c>
@@ -2942,12 +4008,21 @@
         <v>2.306</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>142</v>
       </c>
@@ -2955,8 +4030,19 @@
         <f>'Scaniverse-ise'!D$20-'ObjCap-i14'!D$20</f>
         <v>2.2780488073561092</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="2">
+        <f>'Scaniverse-ise'!D20</f>
+        <v>7.1964403868350004</v>
+      </c>
+      <c r="L6" s="2">
+        <f>'Scaniverse-ise'!D23</f>
+        <v>6.5375499436748381</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>140</v>
       </c>
@@ -2964,8 +4050,19 @@
         <f>(((C3/2-1)*'Scaniverse-ise'!E$20^2)+((C3/2-1)*'ObjCap-i14'!E$20^2))/C3</f>
         <v>2.8898903028986438</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="2">
+        <f>'Scaniverse-i12'!D20</f>
+        <v>6.3531363984889522</v>
+      </c>
+      <c r="L7" s="2">
+        <f>'Scaniverse-i12'!D23</f>
+        <v>5.6726243343258158</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>141</v>
       </c>
@@ -2973,8 +4070,19 @@
         <f>SQRT(C7)</f>
         <v>1.6999677358404905</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="2">
+        <f>'Scaniverse-i14'!D20</f>
+        <v>6.4639834710303941</v>
+      </c>
+      <c r="L8" s="2">
+        <f>'Scaniverse-i14'!D23</f>
+        <v>4.7122692867718774</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>139</v>
       </c>
@@ -2982,21 +4090,32 @@
         <f>C6/(C8*SQRT(1/9+1/9))</f>
         <v>2.8426841149882449</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" s="2">
+        <f>'ObjCap-i14'!D20</f>
+        <v>4.9183915794788913</v>
+      </c>
+      <c r="L9" s="2">
+        <f>'ObjCap-i14'!D23</f>
+        <v>5.1677480592060796</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>138</v>
       </c>
@@ -3004,7 +4123,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>135</v>
       </c>
@@ -3019,7 +4138,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>136</v>
       </c>
@@ -3080,7 +4199,7 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3167,11 +4286,12 @@
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="2" t="s">
         <v>146</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>